--- a/StateOfPractice/Papers/MedImageSoft_SOP-arXiv/figures/PrimaryLangsForMIProjs.xlsx
+++ b/StateOfPractice/Papers/MedImageSoft_SOP-arXiv/figures/PrimaryLangsForMIProjs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smiths/Repos/AIMSS/StateOfPractice/Papers/MedImageSoft_SOP-arXiv/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2737932-24D0-AC4C-8401-F79BF65A5C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F60936-3553-F047-A7B3-35CE4CE1A182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14040" yWindow="2020" windowWidth="32260" windowHeight="17440" xr2:uid="{10588574-AE3B-D84F-A450-233F528C6FFE}"/>
   </bookViews>
